--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf17-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf17-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Fgfr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5366223333333333</v>
+        <v>0.04629666666666667</v>
       </c>
       <c r="H2">
-        <v>1.609867</v>
+        <v>0.13889</v>
       </c>
       <c r="I2">
-        <v>0.7107420539316774</v>
+        <v>0.04104862706247998</v>
       </c>
       <c r="J2">
-        <v>0.748606129033158</v>
+        <v>0.04774538909277917</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3341516666666666</v>
+        <v>0.363908</v>
       </c>
       <c r="N2">
-        <v>1.002455</v>
+        <v>1.091724</v>
       </c>
       <c r="O2">
-        <v>0.02354483703663662</v>
+        <v>0.01118972054940699</v>
       </c>
       <c r="P2">
-        <v>0.03467746452042096</v>
+        <v>0.01663265480083782</v>
       </c>
       <c r="Q2">
-        <v>0.1793132470538888</v>
+        <v>0.01684772737333333</v>
       </c>
       <c r="R2">
-        <v>1.613819223485</v>
+        <v>0.15162954636</v>
       </c>
       <c r="S2">
-        <v>0.01673430583490574</v>
+        <v>0.0004593226657659763</v>
       </c>
       <c r="T2">
-        <v>0.02595976247931701</v>
+        <v>0.0007941325751118832</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5366223333333333</v>
+        <v>0.04629666666666667</v>
       </c>
       <c r="H3">
-        <v>1.609867</v>
+        <v>0.13889</v>
       </c>
       <c r="I3">
-        <v>0.7107420539316774</v>
+        <v>0.04104862706247998</v>
       </c>
       <c r="J3">
-        <v>0.748606129033158</v>
+        <v>0.04774538909277917</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,25 +623,25 @@
         <v>0.153566</v>
       </c>
       <c r="N3">
-        <v>0.4606979999999999</v>
+        <v>0.460698</v>
       </c>
       <c r="O3">
-        <v>0.01082049501783563</v>
+        <v>0.004721964413781051</v>
       </c>
       <c r="P3">
-        <v>0.01593671391696275</v>
+        <v>0.007018835164781924</v>
       </c>
       <c r="Q3">
-        <v>0.08240694524066665</v>
+        <v>0.007109593913333335</v>
       </c>
       <c r="R3">
-        <v>0.7416625071659999</v>
+        <v>0.06398634522</v>
       </c>
       <c r="S3">
-        <v>0.007690580853533979</v>
+        <v>0.0001938301562236003</v>
       </c>
       <c r="T3">
-        <v>0.01193032171488634</v>
+        <v>0.0003351170159205938</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5366223333333333</v>
+        <v>0.04629666666666667</v>
       </c>
       <c r="H4">
-        <v>1.609867</v>
+        <v>0.13889</v>
       </c>
       <c r="I4">
-        <v>0.7107420539316774</v>
+        <v>0.04104862706247998</v>
       </c>
       <c r="J4">
-        <v>0.748606129033158</v>
+        <v>0.04774538909277917</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>13.6684585</v>
+        <v>0.06252866666666666</v>
       </c>
       <c r="N4">
-        <v>27.336917</v>
+        <v>0.187586</v>
       </c>
       <c r="O4">
-        <v>0.9631004721145509</v>
+        <v>0.001922679101110775</v>
       </c>
       <c r="P4">
-        <v>0.9456533902920258</v>
+        <v>0.002857913889838424</v>
       </c>
       <c r="Q4">
-        <v>7.334800093339833</v>
+        <v>0.002894868837777778</v>
       </c>
       <c r="R4">
-        <v>44.008800560039</v>
+        <v>0.02605381954</v>
       </c>
       <c r="S4">
-        <v>0.6845160076932642</v>
+        <v>7.892333738232046E-05</v>
       </c>
       <c r="T4">
-        <v>0.7079219239135957</v>
+        <v>0.0001364522106639936</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>0.04629666666666667</v>
+      </c>
+      <c r="H5">
+        <v>0.13889</v>
+      </c>
+      <c r="I5">
+        <v>0.04104862706247998</v>
+      </c>
+      <c r="J5">
+        <v>0.04774538909277917</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G5">
-        <v>0.5366223333333333</v>
-      </c>
-      <c r="H5">
-        <v>1.609867</v>
-      </c>
-      <c r="I5">
-        <v>0.7107420539316774</v>
-      </c>
-      <c r="J5">
-        <v>0.748606129033158</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.03596566666666667</v>
+        <v>31.927516</v>
       </c>
       <c r="N5">
-        <v>0.107897</v>
+        <v>63.85503199999999</v>
       </c>
       <c r="O5">
-        <v>0.002534195830976933</v>
+        <v>0.9817315966582778</v>
       </c>
       <c r="P5">
-        <v>0.003732431270590561</v>
+        <v>0.9728454303033116</v>
       </c>
       <c r="Q5">
-        <v>0.01929997996655556</v>
+        <v>1.478137565746667</v>
       </c>
       <c r="R5">
-        <v>0.173699819699</v>
+        <v>8.86882539448</v>
       </c>
       <c r="S5">
-        <v>0.00180115954997364</v>
+        <v>0.04029873418667867</v>
       </c>
       <c r="T5">
-        <v>0.002794120925359112</v>
+        <v>0.04644888359696379</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.114565</v>
+        <v>0.04629666666666667</v>
       </c>
       <c r="H6">
-        <v>0.22913</v>
+        <v>0.13889</v>
       </c>
       <c r="I6">
-        <v>0.1517383052302134</v>
+        <v>0.04104862706247998</v>
       </c>
       <c r="J6">
-        <v>0.1065480082176773</v>
+        <v>0.04774538909277917</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.3341516666666666</v>
+        <v>0.01411566666666667</v>
       </c>
       <c r="N6">
-        <v>1.002455</v>
+        <v>0.042347</v>
       </c>
       <c r="O6">
-        <v>0.02354483703663662</v>
+        <v>0.0004340392774233579</v>
       </c>
       <c r="P6">
-        <v>0.03467746452042096</v>
+        <v>0.0006451658412300904</v>
       </c>
       <c r="Q6">
-        <v>0.03828208569166667</v>
+        <v>0.0006535083144444446</v>
       </c>
       <c r="R6">
-        <v>0.22969251415</v>
+        <v>0.005881574830000001</v>
       </c>
       <c r="S6">
-        <v>0.0035726536688608</v>
+        <v>1.781671642941971E-05</v>
       </c>
       <c r="T6">
-        <v>0.003694814774690026</v>
+        <v>3.080369411890086E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.114565</v>
+        <v>0.5366223333333333</v>
       </c>
       <c r="H7">
-        <v>0.22913</v>
+        <v>1.609867</v>
       </c>
       <c r="I7">
-        <v>0.1517383052302134</v>
+        <v>0.4757925704024297</v>
       </c>
       <c r="J7">
-        <v>0.1065480082176773</v>
+        <v>0.5534144020636843</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.153566</v>
+        <v>0.363908</v>
       </c>
       <c r="N7">
-        <v>0.4606979999999999</v>
+        <v>1.091724</v>
       </c>
       <c r="O7">
-        <v>0.01082049501783563</v>
+        <v>0.01118972054940699</v>
       </c>
       <c r="P7">
-        <v>0.01593671391696275</v>
+        <v>0.01663265480083782</v>
       </c>
       <c r="Q7">
-        <v>0.01759328879</v>
+        <v>0.1952811600786666</v>
       </c>
       <c r="R7">
-        <v>0.10555973274</v>
+        <v>1.757530440708</v>
       </c>
       <c r="S7">
-        <v>0.001641883575758346</v>
+        <v>0.00532398590228724</v>
       </c>
       <c r="T7">
-        <v>0.00169802512538732</v>
+        <v>0.00920475071133733</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.114565</v>
+        <v>0.5366223333333333</v>
       </c>
       <c r="H8">
-        <v>0.22913</v>
+        <v>1.609867</v>
       </c>
       <c r="I8">
-        <v>0.1517383052302134</v>
+        <v>0.4757925704024297</v>
       </c>
       <c r="J8">
-        <v>0.1065480082176773</v>
+        <v>0.5534144020636843</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>13.6684585</v>
+        <v>0.153566</v>
       </c>
       <c r="N8">
-        <v>27.336917</v>
+        <v>0.460698</v>
       </c>
       <c r="O8">
-        <v>0.9631004721145509</v>
+        <v>0.004721964413781051</v>
       </c>
       <c r="P8">
-        <v>0.9456533902920258</v>
+        <v>0.007018835164781924</v>
       </c>
       <c r="Q8">
-        <v>1.5659269480525</v>
+        <v>0.08240694524066666</v>
       </c>
       <c r="R8">
-        <v>6.263707792210001</v>
+        <v>0.741662507166</v>
       </c>
       <c r="S8">
-        <v>0.1461392334050803</v>
+        <v>0.002246675585781688</v>
       </c>
       <c r="T8">
-        <v>0.1007574851999092</v>
+        <v>0.00388432446590135</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.114565</v>
+        <v>0.5366223333333333</v>
       </c>
       <c r="H9">
-        <v>0.22913</v>
+        <v>1.609867</v>
       </c>
       <c r="I9">
-        <v>0.1517383052302134</v>
+        <v>0.4757925704024297</v>
       </c>
       <c r="J9">
-        <v>0.1065480082176773</v>
+        <v>0.5534144020636843</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,122 +992,122 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.03596566666666667</v>
+        <v>0.06252866666666666</v>
       </c>
       <c r="N9">
-        <v>0.107897</v>
+        <v>0.187586</v>
       </c>
       <c r="O9">
-        <v>0.002534195830976933</v>
+        <v>0.001922679101110775</v>
       </c>
       <c r="P9">
-        <v>0.003732431270590561</v>
+        <v>0.002857913889838424</v>
       </c>
       <c r="Q9">
-        <v>0.004120406601666667</v>
+        <v>0.03355427900688888</v>
       </c>
       <c r="R9">
-        <v>0.02472243961</v>
+        <v>0.301988511062</v>
       </c>
       <c r="S9">
-        <v>0.0003845345805139121</v>
+        <v>0.0009147964315765288</v>
       </c>
       <c r="T9">
-        <v>0.0003976831176907989</v>
+        <v>0.00158161070649443</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1038296666666667</v>
+        <v>0.5366223333333333</v>
       </c>
       <c r="H10">
-        <v>0.311489</v>
+        <v>1.609867</v>
       </c>
       <c r="I10">
-        <v>0.1375196408381091</v>
+        <v>0.4757925704024297</v>
       </c>
       <c r="J10">
-        <v>0.1448458627491646</v>
+        <v>0.5534144020636843</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3341516666666666</v>
+        <v>31.927516</v>
       </c>
       <c r="N10">
-        <v>1.002455</v>
+        <v>63.85503199999999</v>
       </c>
       <c r="O10">
-        <v>0.02354483703663662</v>
+        <v>0.9817315966582778</v>
       </c>
       <c r="P10">
-        <v>0.03467746452042096</v>
+        <v>0.9728454303033116</v>
       </c>
       <c r="Q10">
-        <v>0.0346948561661111</v>
+        <v>17.13301813345733</v>
       </c>
       <c r="R10">
-        <v>0.3122537054949999</v>
+        <v>102.798108800744</v>
       </c>
       <c r="S10">
-        <v>0.003237877532870078</v>
+        <v>0.4671005998193233</v>
       </c>
       <c r="T10">
-        <v>0.005022887266413919</v>
+        <v>0.5383866721116949</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1038296666666667</v>
+        <v>0.5366223333333333</v>
       </c>
       <c r="H11">
-        <v>0.311489</v>
+        <v>1.609867</v>
       </c>
       <c r="I11">
-        <v>0.1375196408381091</v>
+        <v>0.4757925704024297</v>
       </c>
       <c r="J11">
-        <v>0.1448458627491646</v>
+        <v>0.5534144020636843</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1113,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.153566</v>
+        <v>0.01411566666666667</v>
       </c>
       <c r="N11">
-        <v>0.4606979999999999</v>
+        <v>0.042347</v>
       </c>
       <c r="O11">
-        <v>0.01082049501783563</v>
+        <v>0.0004340392774233579</v>
       </c>
       <c r="P11">
-        <v>0.01593671391696275</v>
+        <v>0.0006451658412300904</v>
       </c>
       <c r="Q11">
-        <v>0.01594470659133333</v>
+        <v>0.007574781983222222</v>
       </c>
       <c r="R11">
-        <v>0.143502359322</v>
+        <v>0.068173037849</v>
       </c>
       <c r="S11">
-        <v>0.001488030588543305</v>
+        <v>0.0002065126634608727</v>
       </c>
       <c r="T11">
-        <v>0.002308367076689088</v>
+        <v>0.0003570440682562644</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,13 +1145,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1157,46 +1160,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1038296666666667</v>
+        <v>0.02325633333333333</v>
       </c>
       <c r="H12">
-        <v>0.311489</v>
+        <v>0.069769</v>
       </c>
       <c r="I12">
-        <v>0.1375196408381091</v>
+        <v>0.02062007100239157</v>
       </c>
       <c r="J12">
-        <v>0.1448458627491646</v>
+        <v>0.0239840740990288</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.6684585</v>
+        <v>0.363908</v>
       </c>
       <c r="N12">
-        <v>27.336917</v>
+        <v>1.091724</v>
       </c>
       <c r="O12">
-        <v>0.9631004721145509</v>
+        <v>0.01118972054940699</v>
       </c>
       <c r="P12">
-        <v>0.9456533902920258</v>
+        <v>0.01663265480083782</v>
       </c>
       <c r="Q12">
-        <v>1.419191489902166</v>
+        <v>0.008463165750666666</v>
       </c>
       <c r="R12">
-        <v>8.515148939412999</v>
+        <v>0.07616849175599999</v>
       </c>
       <c r="S12">
-        <v>0.1324452310162064</v>
+        <v>0.0002307328322256922</v>
       </c>
       <c r="T12">
-        <v>0.1369739811785209</v>
+        <v>0.0003989188252068613</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02325633333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.069769</v>
+      </c>
+      <c r="I13">
+        <v>0.02062007100239157</v>
+      </c>
+      <c r="J13">
+        <v>0.0239840740990288</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.153566</v>
+      </c>
+      <c r="N13">
+        <v>0.460698</v>
+      </c>
+      <c r="O13">
+        <v>0.004721964413781051</v>
+      </c>
+      <c r="P13">
+        <v>0.007018835164781924</v>
+      </c>
+      <c r="Q13">
+        <v>0.003571382084666667</v>
+      </c>
+      <c r="R13">
+        <v>0.032142438762</v>
+      </c>
+      <c r="S13">
+        <v>9.736724148293157E-05</v>
+      </c>
+      <c r="T13">
+        <v>0.0001683402626809987</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02325633333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.069769</v>
+      </c>
+      <c r="I14">
+        <v>0.02062007100239157</v>
+      </c>
+      <c r="J14">
+        <v>0.0239840740990288</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N14">
+        <v>0.187586</v>
+      </c>
+      <c r="O14">
+        <v>0.001922679101110775</v>
+      </c>
+      <c r="P14">
+        <v>0.002857913889838424</v>
+      </c>
+      <c r="Q14">
+        <v>0.001454187514888889</v>
+      </c>
+      <c r="R14">
+        <v>0.013087687634</v>
+      </c>
+      <c r="S14">
+        <v>3.964577957971859E-05</v>
+      </c>
+      <c r="T14">
+        <v>6.854441850252838E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02325633333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.069769</v>
+      </c>
+      <c r="I15">
+        <v>0.02062007100239157</v>
+      </c>
+      <c r="J15">
+        <v>0.0239840740990288</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>31.927516</v>
+      </c>
+      <c r="N15">
+        <v>63.85503199999999</v>
+      </c>
+      <c r="O15">
+        <v>0.9817315966582778</v>
+      </c>
+      <c r="P15">
+        <v>0.9728454303033116</v>
+      </c>
+      <c r="Q15">
+        <v>0.7425169546013333</v>
+      </c>
+      <c r="R15">
+        <v>4.455101727608</v>
+      </c>
+      <c r="S15">
+        <v>0.02024337522838493</v>
+      </c>
+      <c r="T15">
+        <v>0.02333279688729618</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02325633333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.069769</v>
+      </c>
+      <c r="I16">
+        <v>0.02062007100239157</v>
+      </c>
+      <c r="J16">
+        <v>0.0239840740990288</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01411566666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.042347</v>
+      </c>
+      <c r="O16">
+        <v>0.0004340392774233579</v>
+      </c>
+      <c r="P16">
+        <v>0.0006451658412300904</v>
+      </c>
+      <c r="Q16">
+        <v>0.0003282786492222223</v>
+      </c>
+      <c r="R16">
+        <v>0.002954507843</v>
+      </c>
+      <c r="S16">
+        <v>8.949920718296374E-06</v>
+      </c>
+      <c r="T16">
+        <v>1.547370534222474E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.474576</v>
+      </c>
+      <c r="H17">
+        <v>0.949152</v>
+      </c>
+      <c r="I17">
+        <v>0.4207796076780941</v>
+      </c>
+      <c r="J17">
+        <v>0.3262843368722697</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.363908</v>
+      </c>
+      <c r="N17">
+        <v>1.091724</v>
+      </c>
+      <c r="O17">
+        <v>0.01118972054940699</v>
+      </c>
+      <c r="P17">
+        <v>0.01663265480083782</v>
+      </c>
+      <c r="Q17">
+        <v>0.172702003008</v>
+      </c>
+      <c r="R17">
+        <v>1.036212018048</v>
+      </c>
+      <c r="S17">
+        <v>0.004708406222806982</v>
+      </c>
+      <c r="T17">
+        <v>0.005426974742116741</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.474576</v>
+      </c>
+      <c r="H18">
+        <v>0.949152</v>
+      </c>
+      <c r="I18">
+        <v>0.4207796076780941</v>
+      </c>
+      <c r="J18">
+        <v>0.3262843368722697</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.153566</v>
+      </c>
+      <c r="N18">
+        <v>0.460698</v>
+      </c>
+      <c r="O18">
+        <v>0.004721964413781051</v>
+      </c>
+      <c r="P18">
+        <v>0.007018835164781924</v>
+      </c>
+      <c r="Q18">
+        <v>0.07287873801600001</v>
+      </c>
+      <c r="R18">
+        <v>0.437272428096</v>
+      </c>
+      <c r="S18">
+        <v>0.001986906333500712</v>
+      </c>
+      <c r="T18">
+        <v>0.002290135977356638</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.1038296666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.311489</v>
-      </c>
-      <c r="I13">
-        <v>0.1375196408381091</v>
-      </c>
-      <c r="J13">
-        <v>0.1448458627491646</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.03596566666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.107897</v>
-      </c>
-      <c r="O13">
-        <v>0.002534195830976933</v>
-      </c>
-      <c r="P13">
-        <v>0.003732431270590561</v>
-      </c>
-      <c r="Q13">
-        <v>0.003734303181444444</v>
-      </c>
-      <c r="R13">
-        <v>0.033608728633</v>
-      </c>
-      <c r="S13">
-        <v>0.0003485017004893814</v>
-      </c>
-      <c r="T13">
-        <v>0.0005406272275406504</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.474576</v>
+      </c>
+      <c r="H19">
+        <v>0.949152</v>
+      </c>
+      <c r="I19">
+        <v>0.4207796076780941</v>
+      </c>
+      <c r="J19">
+        <v>0.3262843368722697</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N19">
+        <v>0.187586</v>
+      </c>
+      <c r="O19">
+        <v>0.001922679101110775</v>
+      </c>
+      <c r="P19">
+        <v>0.002857913889838424</v>
+      </c>
+      <c r="Q19">
+        <v>0.029674604512</v>
+      </c>
+      <c r="R19">
+        <v>0.178047627072</v>
+      </c>
+      <c r="S19">
+        <v>0.0008090241578562628</v>
+      </c>
+      <c r="T19">
+        <v>0.0009324925383839788</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.474576</v>
+      </c>
+      <c r="H20">
+        <v>0.949152</v>
+      </c>
+      <c r="I20">
+        <v>0.4207796076780941</v>
+      </c>
+      <c r="J20">
+        <v>0.3262843368722697</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>31.927516</v>
+      </c>
+      <c r="N20">
+        <v>63.85503199999999</v>
+      </c>
+      <c r="O20">
+        <v>0.9817315966582778</v>
+      </c>
+      <c r="P20">
+        <v>0.9728454303033116</v>
+      </c>
+      <c r="Q20">
+        <v>15.152032833216</v>
+      </c>
+      <c r="R20">
+        <v>60.60813133286399</v>
+      </c>
+      <c r="S20">
+        <v>0.4130926360870591</v>
+      </c>
+      <c r="T20">
+        <v>0.3174242261057338</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.474576</v>
+      </c>
+      <c r="H21">
+        <v>0.949152</v>
+      </c>
+      <c r="I21">
+        <v>0.4207796076780941</v>
+      </c>
+      <c r="J21">
+        <v>0.3262843368722697</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.01411566666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.042347</v>
+      </c>
+      <c r="O21">
+        <v>0.0004340392774233579</v>
+      </c>
+      <c r="P21">
+        <v>0.0006451658412300904</v>
+      </c>
+      <c r="Q21">
+        <v>0.006698956624</v>
+      </c>
+      <c r="R21">
+        <v>0.040193739744</v>
+      </c>
+      <c r="S21">
+        <v>0.000182634876871084</v>
+      </c>
+      <c r="T21">
+        <v>0.0002105075086784001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.047098</v>
+      </c>
+      <c r="H22">
+        <v>0.141294</v>
+      </c>
+      <c r="I22">
+        <v>0.04175912385460469</v>
+      </c>
+      <c r="J22">
+        <v>0.04857179787223803</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.363908</v>
+      </c>
+      <c r="N22">
+        <v>1.091724</v>
+      </c>
+      <c r="O22">
+        <v>0.01118972054940699</v>
+      </c>
+      <c r="P22">
+        <v>0.01663265480083782</v>
+      </c>
+      <c r="Q22">
+        <v>0.017139338984</v>
+      </c>
+      <c r="R22">
+        <v>0.154254050856</v>
+      </c>
+      <c r="S22">
+        <v>0.0004672729263211019</v>
+      </c>
+      <c r="T22">
+        <v>0.0008078779470650041</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.047098</v>
+      </c>
+      <c r="H23">
+        <v>0.141294</v>
+      </c>
+      <c r="I23">
+        <v>0.04175912385460469</v>
+      </c>
+      <c r="J23">
+        <v>0.04857179787223803</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.153566</v>
+      </c>
+      <c r="N23">
+        <v>0.460698</v>
+      </c>
+      <c r="O23">
+        <v>0.004721964413781051</v>
+      </c>
+      <c r="P23">
+        <v>0.007018835164781924</v>
+      </c>
+      <c r="Q23">
+        <v>0.007232651468</v>
+      </c>
+      <c r="R23">
+        <v>0.065093863212</v>
+      </c>
+      <c r="S23">
+        <v>0.0001971850967921187</v>
+      </c>
+      <c r="T23">
+        <v>0.0003409174429223441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.047098</v>
+      </c>
+      <c r="H24">
+        <v>0.141294</v>
+      </c>
+      <c r="I24">
+        <v>0.04175912385460469</v>
+      </c>
+      <c r="J24">
+        <v>0.04857179787223803</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.06252866666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.187586</v>
+      </c>
+      <c r="O24">
+        <v>0.001922679101110775</v>
+      </c>
+      <c r="P24">
+        <v>0.002857913889838424</v>
+      </c>
+      <c r="Q24">
+        <v>0.002944975142666667</v>
+      </c>
+      <c r="R24">
+        <v>0.026504776284</v>
+      </c>
+      <c r="S24">
+        <v>8.02893947159449E-05</v>
+      </c>
+      <c r="T24">
+        <v>0.0001388140157934935</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.047098</v>
+      </c>
+      <c r="H25">
+        <v>0.141294</v>
+      </c>
+      <c r="I25">
+        <v>0.04175912385460469</v>
+      </c>
+      <c r="J25">
+        <v>0.04857179787223803</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>31.927516</v>
+      </c>
+      <c r="N25">
+        <v>63.85503199999999</v>
+      </c>
+      <c r="O25">
+        <v>0.9817315966582778</v>
+      </c>
+      <c r="P25">
+        <v>0.9728454303033116</v>
+      </c>
+      <c r="Q25">
+        <v>1.503722148568</v>
+      </c>
+      <c r="R25">
+        <v>9.022332891407999</v>
+      </c>
+      <c r="S25">
+        <v>0.04099625133683184</v>
+      </c>
+      <c r="T25">
+        <v>0.04725285160162288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.047098</v>
+      </c>
+      <c r="H26">
+        <v>0.141294</v>
+      </c>
+      <c r="I26">
+        <v>0.04175912385460469</v>
+      </c>
+      <c r="J26">
+        <v>0.04857179787223803</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.01411566666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.042347</v>
+      </c>
+      <c r="O26">
+        <v>0.0004340392774233579</v>
+      </c>
+      <c r="P26">
+        <v>0.0006451658412300904</v>
+      </c>
+      <c r="Q26">
+        <v>0.0006648196686666667</v>
+      </c>
+      <c r="R26">
+        <v>0.005983377018000001</v>
+      </c>
+      <c r="S26">
+        <v>1.812509994368513E-05</v>
+      </c>
+      <c r="T26">
+        <v>3.133686483430036E-05</v>
       </c>
     </row>
   </sheetData>
